--- a/biology/Botanique/Andreï_Famintsyne/Andreï_Famintsyne.xlsx
+++ b/biology/Botanique/Andreï_Famintsyne/Andreï_Famintsyne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andre%C3%AF_Famintsyne</t>
+          <t>Andreï_Famintsyne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andreï Sergueïevitch Famintsyne (en russe: Андре́й Серге́евич Фами́нцын), né le 17 (29) juin 1835 à Moscou et mort le 8 décembre 1918 à Pétrograd, est un botaniste russe qui fut académicien de l'académie impériale des sciences de Saint-Pétersbourg et professeur de physiologie végétale. Il est le frère du compositeur et musicologue Alexandre Famintsyne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andre%C3%AF_Famintsyne</t>
+          <t>Andreï_Famintsyne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l’université de Saint-Pétersbourg avant d’y enseigner la botanique à partir de 1872.
 Il fait paraître Embryologische Studien en 1879. Il étudie particulièrement le développement embryonnaire des graines ainsi que les phénomènes symbiotiques dont il est l’un des premiers théoriciens.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andre%C3%AF_Famintsyne</t>
+          <t>Andreï_Famintsyne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Die Wirkung des Lichtes auf das Wachsen der keimenden Kresse (1865)
 (de) Zur Entwicklungsgeschichte der Gonidien und Zoosporenbildung der Flechten (en collaboration avec Y. Boranetski, 1867)
